--- a/biology/Microbiologie/Liste_des_genres_de_bactéries_désignés_par_des_noms_de_personnes/Liste_des_genres_de_bactéries_désignés_par_des_noms_de_personnes.xlsx
+++ b/biology/Microbiologie/Liste_des_genres_de_bactéries_désignés_par_des_noms_de_personnes/Liste_des_genres_de_bactéries_désignés_par_des_noms_de_personnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_genres_de_bact%C3%A9ries_d%C3%A9sign%C3%A9s_par_des_noms_de_personnes</t>
+          <t>Liste_des_genres_de_bactéries_désignés_par_des_noms_de_personnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces bactériennes ont reçu des noms dérivés de noms de personnes, qu’il s’agisse de découvreurs ou de personnes célèbres dans le domaine de la microbiologie, par exemple « Salmonella » est un hommage à DE Salmon, qui l'a découverte (bien que « Bacillus typhi » [1])[2].
-Pour le nom générique, tous les noms dérivés de personnes doivent être au nominatif féminin, en changeant la fin à -a ou son diminutif -ella, en fonction du nom[3].
-Pour l'épithète spécifique, les noms peuvent être convertis soit sous forme adjectivale (en ajoutant le suffixe  -nus (m.), -na (f.), -num (n.) selon le genre du nom générique), soit sous forme du génitif du nom latinisé[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces bactériennes ont reçu des noms dérivés de noms de personnes, qu’il s’agisse de découvreurs ou de personnes célèbres dans le domaine de la microbiologie, par exemple « Salmonella » est un hommage à DE Salmon, qui l'a découverte (bien que « Bacillus typhi » ).
+Pour le nom générique, tous les noms dérivés de personnes doivent être au nominatif féminin, en changeant la fin à -a ou son diminutif -ella, en fonction du nom.
+Pour l'épithète spécifique, les noms peuvent être convertis soit sous forme adjectivale (en ajoutant le suffixe  -nus (m.), -na (f.), -num (n.) selon le genre du nom générique), soit sous forme du génitif du nom latinisé.
 Adlercreutzia – H. Adlercreutz, professeur finlandais
 Afifella – S. Afif,  philosophe et peintre britannique
 Agreia – Nina S. Agre, microbiologiste russe
